--- a/Prac2/Prac2Results-ARNJAM004-WLFJAD001.xlsx
+++ b/Prac2/Prac2Results-ARNJAM004-WLFJAD001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwolf\Documents\Work\eee3095S\Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FFDEB7-7A49-4A09-96AE-D02EE9D7FB2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD43B1-31EF-4295-BB53-147E6DCEAD0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="600" windowWidth="21600" windowHeight="13965" xr2:uid="{97FB59FB-642C-4C53-A33E-00E9645D38A2}"/>
+    <workbookView xWindow="-5775" yWindow="3645" windowWidth="21600" windowHeight="13965" xr2:uid="{97FB59FB-642C-4C53-A33E-00E9645D38A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Python</t>
   </si>
@@ -105,12 +105,6 @@
     <t>vfpv3-fp16</t>
   </si>
   <si>
-    <t>fpv4</t>
-  </si>
-  <si>
-    <t>Unrecognised option</t>
-  </si>
-  <si>
     <t>neon-fp-armv8</t>
   </si>
   <si>
@@ -154,6 +148,9 @@
   </si>
   <si>
     <t>3A</t>
+  </si>
+  <si>
+    <t>vfpv4</t>
   </si>
 </sst>
 </file>
@@ -523,7 +520,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -581,10 +578,10 @@
         <v>6.0050683333333339</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1018,7 +1015,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
@@ -1065,15 +1062,29 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>1.19384E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.1583800000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.2932200000000001E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.2151466666666668E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>4941.8465260709272</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>1.5023199999999999E-3</v>
@@ -1095,7 +1106,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>1.4812899999999999E-3</v>
@@ -1117,7 +1128,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>1.61243E-3</v>
@@ -1139,7 +1150,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>1.67282E-3</v>
@@ -1161,16 +1172,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28">
-        <f>AVERAGE(I3:I22,I24:I27)</f>
-        <v>3542.7531500763812</v>
+        <f>AVERAGE(I3:I27)</f>
+        <v>3598.7168851161628</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1187,13 +1198,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>1.0226499999999999E-3</v>
@@ -1215,10 +1226,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1.6097399999999999E-3</v>
